--- a/examples/sources/data/unsolved/to_schedule/2019-04-29.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-29.xlsx
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2">
         <v>43584</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>43584</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2">
         <v>43584</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43584</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" s="2">
         <v>43584</v>
